--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Plxna3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H2">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I2">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J2">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.25257570993142</v>
+        <v>0.2616226666666667</v>
       </c>
       <c r="N2">
-        <v>0.25257570993142</v>
+        <v>0.784868</v>
       </c>
       <c r="O2">
-        <v>0.02369955147878568</v>
+        <v>0.02194068597308638</v>
       </c>
       <c r="P2">
-        <v>0.02369955147878568</v>
+        <v>0.02364079182080195</v>
       </c>
       <c r="Q2">
-        <v>5.958174845576903</v>
+        <v>9.239343569384443</v>
       </c>
       <c r="R2">
-        <v>5.958174845576903</v>
+        <v>83.15409212446001</v>
       </c>
       <c r="S2">
-        <v>0.01981650900285748</v>
+        <v>0.01913633374874318</v>
       </c>
       <c r="T2">
-        <v>0.01981650900285748</v>
+        <v>0.02120728163045178</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H3">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I3">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J3">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.71386184777309</v>
+        <v>6.378252666666666</v>
       </c>
       <c r="N3">
-        <v>5.71386184777309</v>
+        <v>19.134758</v>
       </c>
       <c r="O3">
-        <v>0.5361400866327815</v>
+        <v>0.534904871200001</v>
       </c>
       <c r="P3">
-        <v>0.5361400866327815</v>
+        <v>0.576352750296132</v>
       </c>
       <c r="Q3">
-        <v>134.7880520329803</v>
+        <v>225.2513840276677</v>
       </c>
       <c r="R3">
-        <v>134.7880520329803</v>
+        <v>2027.26245624901</v>
       </c>
       <c r="S3">
-        <v>0.4482964524903187</v>
+        <v>0.4665359210586155</v>
       </c>
       <c r="T3">
-        <v>0.4482964524903187</v>
+        <v>0.5170247759324373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H4">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I4">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J4">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.17242882760036</v>
+        <v>1.655501333333333</v>
       </c>
       <c r="N4">
-        <v>1.17242882760036</v>
+        <v>4.966504</v>
       </c>
       <c r="O4">
-        <v>0.1100107265361012</v>
+        <v>0.1388367275109667</v>
       </c>
       <c r="P4">
-        <v>0.1100107265361012</v>
+        <v>0.1495946925357896</v>
       </c>
       <c r="Q4">
-        <v>27.65719613629678</v>
+        <v>58.46490976154222</v>
       </c>
       <c r="R4">
-        <v>27.65719613629678</v>
+        <v>526.1841878538801</v>
       </c>
       <c r="S4">
-        <v>0.09198606795428027</v>
+        <v>0.121091289374096</v>
       </c>
       <c r="T4">
-        <v>0.09198606795428027</v>
+        <v>0.1341958763088383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H5">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I5">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J5">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.969997864346764</v>
+        <v>1.056181666666667</v>
       </c>
       <c r="N5">
-        <v>0.969997864346764</v>
+        <v>3.168545</v>
       </c>
       <c r="O5">
-        <v>0.09101633061484893</v>
+        <v>0.08857546853304375</v>
       </c>
       <c r="P5">
-        <v>0.09101633061484893</v>
+        <v>0.09543886707044101</v>
       </c>
       <c r="Q5">
-        <v>22.88191876084779</v>
+        <v>37.29961709491944</v>
       </c>
       <c r="R5">
-        <v>22.88191876084779</v>
+        <v>335.696553854275</v>
       </c>
       <c r="S5">
-        <v>0.07610380038840388</v>
+        <v>0.07725418110804803</v>
       </c>
       <c r="T5">
-        <v>0.07610380038840388</v>
+        <v>0.085614684474026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.5896589074012</v>
+        <v>35.31553166666666</v>
       </c>
       <c r="H6">
-        <v>23.5896589074012</v>
+        <v>105.946595</v>
       </c>
       <c r="I6">
-        <v>0.8361554445701622</v>
+        <v>0.8721848429085958</v>
       </c>
       <c r="J6">
-        <v>0.8361554445701622</v>
+        <v>0.8970630844856526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.54854039184589</v>
+        <v>2.5725295</v>
       </c>
       <c r="N6">
-        <v>2.54854039184589</v>
+        <v>5.145059</v>
       </c>
       <c r="O6">
-        <v>0.2391333047374827</v>
+        <v>0.2157422467829021</v>
       </c>
       <c r="P6">
-        <v>0.2391333047374827</v>
+        <v>0.1549728982768356</v>
       </c>
       <c r="Q6">
-        <v>60.11919855537915</v>
+        <v>90.85024702068417</v>
       </c>
       <c r="R6">
-        <v>60.11919855537915</v>
+        <v>545.101482124105</v>
       </c>
       <c r="S6">
-        <v>0.199952614734302</v>
+        <v>0.1881671176190929</v>
       </c>
       <c r="T6">
-        <v>0.199952614734302</v>
+        <v>0.1390204661398995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H7">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I7">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J7">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.25257570993142</v>
+        <v>0.2616226666666667</v>
       </c>
       <c r="N7">
-        <v>0.25257570993142</v>
+        <v>0.784868</v>
       </c>
       <c r="O7">
-        <v>0.02369955147878568</v>
+        <v>0.02194068597308638</v>
       </c>
       <c r="P7">
-        <v>0.02369955147878568</v>
+        <v>0.02364079182080195</v>
       </c>
       <c r="Q7">
-        <v>0.3711571323138945</v>
+        <v>0.4447533880875556</v>
       </c>
       <c r="R7">
-        <v>0.3711571323138945</v>
+        <v>4.002780492788</v>
       </c>
       <c r="S7">
-        <v>0.001234444917210364</v>
+        <v>0.000921163847454456</v>
       </c>
       <c r="T7">
-        <v>0.001234444917210364</v>
+        <v>0.001020852865405329</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H8">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I8">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J8">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.71386184777309</v>
+        <v>6.378252666666666</v>
       </c>
       <c r="N8">
-        <v>5.71386184777309</v>
+        <v>19.134758</v>
       </c>
       <c r="O8">
-        <v>0.5361400866327815</v>
+        <v>0.534904871200001</v>
       </c>
       <c r="P8">
-        <v>0.5361400866327815</v>
+        <v>0.576352750296132</v>
       </c>
       <c r="Q8">
-        <v>8.396454981490734</v>
+        <v>10.84290409436422</v>
       </c>
       <c r="R8">
-        <v>8.396454981490734</v>
+        <v>97.58613684927799</v>
       </c>
       <c r="S8">
-        <v>0.02792607300813242</v>
+        <v>0.02245759452467157</v>
       </c>
       <c r="T8">
-        <v>0.02792607300813242</v>
+        <v>0.02488797165018517</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H9">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I9">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J9">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.17242882760036</v>
+        <v>1.655501333333333</v>
       </c>
       <c r="N9">
-        <v>1.17242882760036</v>
+        <v>4.966504</v>
       </c>
       <c r="O9">
-        <v>0.1100107265361012</v>
+        <v>0.1388367275109667</v>
       </c>
       <c r="P9">
-        <v>0.1100107265361012</v>
+        <v>0.1495946925357896</v>
       </c>
       <c r="Q9">
-        <v>1.722870824009346</v>
+        <v>2.814319708473778</v>
       </c>
       <c r="R9">
-        <v>1.722870824009346</v>
+        <v>25.328877376264</v>
       </c>
       <c r="S9">
-        <v>0.005730158325260753</v>
+        <v>0.005828959688811298</v>
       </c>
       <c r="T9">
-        <v>0.005730158325260753</v>
+        <v>0.006459773923063531</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H10">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I10">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J10">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.969997864346764</v>
+        <v>1.056181666666667</v>
       </c>
       <c r="N10">
-        <v>0.969997864346764</v>
+        <v>3.168545</v>
       </c>
       <c r="O10">
-        <v>0.09101633061484893</v>
+        <v>0.08857546853304375</v>
       </c>
       <c r="P10">
-        <v>0.09101633061484893</v>
+        <v>0.09543886707044101</v>
       </c>
       <c r="Q10">
-        <v>1.425400826466254</v>
+        <v>1.795488061760556</v>
       </c>
       <c r="R10">
-        <v>1.425400826466254</v>
+        <v>16.159392555845</v>
       </c>
       <c r="S10">
-        <v>0.004740792112087481</v>
+        <v>0.003718777046627686</v>
       </c>
       <c r="T10">
-        <v>0.004740792112087481</v>
+        <v>0.004121225788815098</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.46948862348906</v>
+        <v>1.699980333333333</v>
       </c>
       <c r="H11">
-        <v>1.46948862348906</v>
+        <v>5.099941</v>
       </c>
       <c r="I11">
-        <v>0.05208726917534117</v>
+        <v>0.04198427745533594</v>
       </c>
       <c r="J11">
-        <v>0.05208726917534117</v>
+        <v>0.04318183896476186</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.54854039184589</v>
+        <v>2.5725295</v>
       </c>
       <c r="N11">
-        <v>2.54854039184589</v>
+        <v>5.145059</v>
       </c>
       <c r="O11">
-        <v>0.2391333047374827</v>
+        <v>0.2157422467829021</v>
       </c>
       <c r="P11">
-        <v>0.2391333047374827</v>
+        <v>0.1549728982768356</v>
       </c>
       <c r="Q11">
-        <v>3.745051112319886</v>
+        <v>4.373249556919833</v>
       </c>
       <c r="R11">
-        <v>3.745051112319886</v>
+        <v>26.239497341519</v>
       </c>
       <c r="S11">
-        <v>0.01245580081265015</v>
+        <v>0.009057782347770918</v>
       </c>
       <c r="T11">
-        <v>0.01245580081265015</v>
+        <v>0.006692014737292737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H12">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I12">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J12">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.25257570993142</v>
+        <v>0.2616226666666667</v>
       </c>
       <c r="N12">
-        <v>0.25257570993142</v>
+        <v>0.784868</v>
       </c>
       <c r="O12">
-        <v>0.02369955147878568</v>
+        <v>0.02194068597308638</v>
       </c>
       <c r="P12">
-        <v>0.02369955147878568</v>
+        <v>0.02364079182080195</v>
       </c>
       <c r="Q12">
-        <v>0.7963464880788749</v>
+        <v>0.005523726568888889</v>
       </c>
       <c r="R12">
-        <v>0.7963464880788749</v>
+        <v>0.04971353912</v>
       </c>
       <c r="S12">
-        <v>0.002648597558717829</v>
+        <v>1.144062609700097E-05</v>
       </c>
       <c r="T12">
-        <v>0.002648597558717829</v>
+        <v>1.267873892948438E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H13">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I13">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J13">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.71386184777309</v>
+        <v>6.378252666666666</v>
       </c>
       <c r="N13">
-        <v>5.71386184777309</v>
+        <v>19.134758</v>
       </c>
       <c r="O13">
-        <v>0.5361400866327815</v>
+        <v>0.534904871200001</v>
       </c>
       <c r="P13">
-        <v>0.5361400866327815</v>
+        <v>0.576352750296132</v>
       </c>
       <c r="Q13">
-        <v>18.01524706028722</v>
+        <v>0.1346661746355555</v>
       </c>
       <c r="R13">
-        <v>18.01524706028722</v>
+        <v>1.21199557172</v>
       </c>
       <c r="S13">
-        <v>0.05991756113433035</v>
+        <v>0.0002789177437920748</v>
       </c>
       <c r="T13">
-        <v>0.05991756113433035</v>
+        <v>0.0003091024237972025</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H14">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I14">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J14">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.17242882760036</v>
+        <v>1.655501333333333</v>
       </c>
       <c r="N14">
-        <v>1.17242882760036</v>
+        <v>4.966504</v>
       </c>
       <c r="O14">
-        <v>0.1100107265361012</v>
+        <v>0.1388367275109667</v>
       </c>
       <c r="P14">
-        <v>0.1100107265361012</v>
+        <v>0.1495946925357896</v>
       </c>
       <c r="Q14">
-        <v>3.696553321122958</v>
+        <v>0.03495315148444444</v>
       </c>
       <c r="R14">
-        <v>3.696553321122958</v>
+        <v>0.31457836336</v>
       </c>
       <c r="S14">
-        <v>0.01229450025656021</v>
+        <v>7.239423097037938E-05</v>
       </c>
       <c r="T14">
-        <v>0.01229450025656021</v>
+        <v>8.022878701672117E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.15290210723391</v>
+        <v>0.02111333333333333</v>
       </c>
       <c r="H15">
-        <v>3.15290210723391</v>
+        <v>0.06333999999999999</v>
       </c>
       <c r="I15">
-        <v>0.1117572862544966</v>
+        <v>0.0005214342938518265</v>
       </c>
       <c r="J15">
-        <v>0.1117572862544966</v>
+        <v>0.000536307710231945</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.969997864346764</v>
+        <v>1.056181666666667</v>
       </c>
       <c r="N15">
-        <v>0.969997864346764</v>
+        <v>3.168545</v>
       </c>
       <c r="O15">
-        <v>0.09101633061484893</v>
+        <v>0.08857546853304375</v>
       </c>
       <c r="P15">
-        <v>0.09101633061484893</v>
+        <v>0.09543886707044101</v>
       </c>
       <c r="Q15">
-        <v>3.058308310511304</v>
+        <v>0.02229951558888888</v>
       </c>
       <c r="R15">
-        <v>3.058308310511304</v>
+        <v>0.2006956403</v>
       </c>
       <c r="S15">
-        <v>0.01017173811435757</v>
+        <v>4.618628688712235E-05</v>
       </c>
       <c r="T15">
-        <v>0.01017173811435757</v>
+        <v>5.118460026567919E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02111333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.06333999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0005214342938518265</v>
+      </c>
+      <c r="J16">
+        <v>0.000536307710231945</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.5725295</v>
+      </c>
+      <c r="N16">
+        <v>5.145059</v>
+      </c>
+      <c r="O16">
+        <v>0.2157422467829021</v>
+      </c>
+      <c r="P16">
+        <v>0.1549728982768356</v>
+      </c>
+      <c r="Q16">
+        <v>0.05431467284333333</v>
+      </c>
+      <c r="R16">
+        <v>0.32588803706</v>
+      </c>
+      <c r="S16">
+        <v>0.000112495406105249</v>
+      </c>
+      <c r="T16">
+        <v>8.311316022285785E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.256365</v>
+      </c>
+      <c r="I17">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J17">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.2616226666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.784868</v>
+      </c>
+      <c r="O17">
+        <v>0.02194068597308638</v>
+      </c>
+      <c r="P17">
+        <v>0.02364079182080195</v>
+      </c>
+      <c r="Q17">
+        <v>0.02235696498</v>
+      </c>
+      <c r="R17">
+        <v>0.20121268482</v>
+      </c>
+      <c r="S17">
+        <v>4.630527485566237E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.131646519825172E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.256365</v>
+      </c>
+      <c r="I18">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J18">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.378252666666666</v>
+      </c>
+      <c r="N18">
+        <v>19.134758</v>
+      </c>
+      <c r="O18">
+        <v>0.534904871200001</v>
+      </c>
+      <c r="P18">
+        <v>0.576352750296132</v>
+      </c>
+      <c r="Q18">
+        <v>0.5450535816299998</v>
+      </c>
+      <c r="R18">
+        <v>4.905482234669998</v>
+      </c>
+      <c r="S18">
+        <v>0.001128903495220323</v>
+      </c>
+      <c r="T18">
+        <v>0.001251074248133404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.256365</v>
+      </c>
+      <c r="I19">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J19">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.655501333333333</v>
+      </c>
+      <c r="N19">
+        <v>4.966504</v>
+      </c>
+      <c r="O19">
+        <v>0.1388367275109667</v>
+      </c>
+      <c r="P19">
+        <v>0.1495946925357896</v>
+      </c>
+      <c r="Q19">
+        <v>0.14147086644</v>
+      </c>
+      <c r="R19">
+        <v>1.27323779796</v>
+      </c>
+      <c r="S19">
+        <v>0.0002930114780979051</v>
+      </c>
+      <c r="T19">
+        <v>0.0003247213922251613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.256365</v>
+      </c>
+      <c r="I20">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J20">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.056181666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.168545</v>
+      </c>
+      <c r="O20">
+        <v>0.08857546853304375</v>
+      </c>
+      <c r="P20">
+        <v>0.09543886707044101</v>
+      </c>
+      <c r="Q20">
+        <v>0.09025600432499999</v>
+      </c>
+      <c r="R20">
+        <v>0.8123040389249998</v>
+      </c>
+      <c r="S20">
+        <v>0.0001869363346671475</v>
+      </c>
+      <c r="T20">
+        <v>0.0002071667200364832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08545499999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.256365</v>
+      </c>
+      <c r="I21">
+        <v>0.002110475256446535</v>
+      </c>
+      <c r="J21">
+        <v>0.002170674552156813</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.5725295</v>
+      </c>
+      <c r="N21">
+        <v>5.145059</v>
+      </c>
+      <c r="O21">
+        <v>0.2157422467829021</v>
+      </c>
+      <c r="P21">
+        <v>0.1549728982768356</v>
+      </c>
+      <c r="Q21">
+        <v>0.2198355084225</v>
+      </c>
+      <c r="R21">
+        <v>1.319013050535</v>
+      </c>
+      <c r="S21">
+        <v>0.0004553186736054968</v>
+      </c>
+      <c r="T21">
+        <v>0.0003363957265635136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.3687995</v>
+      </c>
+      <c r="H22">
+        <v>6.737599</v>
+      </c>
+      <c r="I22">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J22">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2616226666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.784868</v>
+      </c>
+      <c r="O22">
+        <v>0.02194068597308638</v>
+      </c>
+      <c r="P22">
+        <v>0.02364079182080195</v>
+      </c>
+      <c r="Q22">
+        <v>0.8813543086553334</v>
+      </c>
+      <c r="R22">
+        <v>5.288125851932</v>
+      </c>
+      <c r="S22">
+        <v>0.001825442475936083</v>
+      </c>
+      <c r="T22">
+        <v>0.001348662120817099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.3687995</v>
+      </c>
+      <c r="H23">
+        <v>6.737599</v>
+      </c>
+      <c r="I23">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J23">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.378252666666666</v>
+      </c>
+      <c r="N23">
+        <v>19.134758</v>
+      </c>
+      <c r="O23">
+        <v>0.534904871200001</v>
+      </c>
+      <c r="P23">
+        <v>0.576352750296132</v>
+      </c>
+      <c r="Q23">
+        <v>21.48705439434033</v>
+      </c>
+      <c r="R23">
+        <v>128.922326366042</v>
+      </c>
+      <c r="S23">
+        <v>0.04450353437770143</v>
+      </c>
+      <c r="T23">
+        <v>0.03287982604157891</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>3.15290210723391</v>
-      </c>
-      <c r="H16">
-        <v>3.15290210723391</v>
-      </c>
-      <c r="I16">
-        <v>0.1117572862544966</v>
-      </c>
-      <c r="J16">
-        <v>0.1117572862544966</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.54854039184589</v>
-      </c>
-      <c r="N16">
-        <v>2.54854039184589</v>
-      </c>
-      <c r="O16">
-        <v>0.2391333047374827</v>
-      </c>
-      <c r="P16">
-        <v>0.2391333047374827</v>
-      </c>
-      <c r="Q16">
-        <v>8.035298371821641</v>
-      </c>
-      <c r="R16">
-        <v>8.035298371821641</v>
-      </c>
-      <c r="S16">
-        <v>0.02672488919053062</v>
-      </c>
-      <c r="T16">
-        <v>0.02672488919053062</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.3687995</v>
+      </c>
+      <c r="H24">
+        <v>6.737599</v>
+      </c>
+      <c r="I24">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J24">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.655501333333333</v>
+      </c>
+      <c r="N24">
+        <v>4.966504</v>
+      </c>
+      <c r="O24">
+        <v>0.1388367275109667</v>
+      </c>
+      <c r="P24">
+        <v>0.1495946925357896</v>
+      </c>
+      <c r="Q24">
+        <v>5.577052063982667</v>
+      </c>
+      <c r="R24">
+        <v>33.46231238389601</v>
+      </c>
+      <c r="S24">
+        <v>0.01155107273899109</v>
+      </c>
+      <c r="T24">
+        <v>0.008534092124645936</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.3687995</v>
+      </c>
+      <c r="H25">
+        <v>6.737599</v>
+      </c>
+      <c r="I25">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J25">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.056181666666667</v>
+      </c>
+      <c r="N25">
+        <v>3.168545</v>
+      </c>
+      <c r="O25">
+        <v>0.08857546853304375</v>
+      </c>
+      <c r="P25">
+        <v>0.09543886707044101</v>
+      </c>
+      <c r="Q25">
+        <v>3.558064270575833</v>
+      </c>
+      <c r="R25">
+        <v>21.348385623455</v>
+      </c>
+      <c r="S25">
+        <v>0.007369387756813752</v>
+      </c>
+      <c r="T25">
+        <v>0.005444605487297757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.3687995</v>
+      </c>
+      <c r="H26">
+        <v>6.737599</v>
+      </c>
+      <c r="I26">
+        <v>0.08319897008576981</v>
+      </c>
+      <c r="J26">
+        <v>0.05704809428719676</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.5725295</v>
+      </c>
+      <c r="N26">
+        <v>5.145059</v>
+      </c>
+      <c r="O26">
+        <v>0.2157422467829021</v>
+      </c>
+      <c r="P26">
+        <v>0.1549728982768356</v>
+      </c>
+      <c r="Q26">
+        <v>8.66633609333525</v>
+      </c>
+      <c r="R26">
+        <v>34.665344373341</v>
+      </c>
+      <c r="S26">
+        <v>0.01794953273632744</v>
+      </c>
+      <c r="T26">
+        <v>0.008840908512857071</v>
       </c>
     </row>
   </sheetData>
